--- a/Samples/Деревья.xlsx
+++ b/Samples/Деревья.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sasha\Google Диск (dubinskiyav@gmail.com)\PostgreSQL\SQL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\Programming\PostgreSQL\Samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF8AEB8-A019-46B6-BDDB-703C90321A16}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E49ECED9-B972-462E-82EC-46B83922473C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20070" yWindow="6983" windowWidth="17760" windowHeight="9989" xr2:uid="{69D70B7A-34EB-47AC-A777-382FD57B056B}"/>
+    <workbookView xWindow="1725" yWindow="600" windowWidth="21690" windowHeight="18375" xr2:uid="{69D70B7A-34EB-47AC-A777-382FD57B056B}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="103">
   <si>
     <t>Уровень 1</t>
   </si>
@@ -297,33 +297,18 @@
     <t>вверх все</t>
   </si>
   <si>
-    <t>WITH  test_workgroup (subjectwg_id, workgroup_id, subjectwg_name)AS (</t>
-  </si>
-  <si>
     <t xml:space="preserve">  SELECT S.subjectwg_id,</t>
   </si>
   <si>
     <t xml:space="preserve">         S.workgroup_id,</t>
   </si>
   <si>
-    <t xml:space="preserve">         S.subjectwg_name</t>
-  </si>
-  <si>
     <t xml:space="preserve">  FROM   t_subjectwg S</t>
   </si>
   <si>
-    <t xml:space="preserve">  WHERE  S.subjectwg_id = 39787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  UNION  ALL </t>
-  </si>
-  <si>
     <t xml:space="preserve">  FROM   subworkgroup SWG,</t>
   </si>
   <si>
-    <t xml:space="preserve">         test_workgroup T,</t>
-  </si>
-  <si>
     <t xml:space="preserve">         t_subjectwg S</t>
   </si>
   <si>
@@ -333,7 +318,28 @@
     <t xml:space="preserve">    AND  S.workgroup_id = SWG.workgroup_id</t>
   </si>
   <si>
-    <t>FROM   test_workgroup</t>
+    <t>WITH RECURSIVE workgroup_tree AS (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         S.subjectwg_name,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         1 AS Level_Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  WHERE  S.subjectwg_id = -1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  UNION </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Level_Number + 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         workgroup_tree T,</t>
+  </si>
+  <si>
+    <t>FROM   workgroup_tree</t>
   </si>
 </sst>
 </file>
@@ -814,10 +820,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6B4F062-CBC5-4159-BCF2-CEE03722083F}">
-  <dimension ref="A2:R63"/>
+  <dimension ref="A2:R65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46:H63"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="O53" sqref="O53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1443,7 +1449,7 @@
         <v>60</v>
       </c>
       <c r="H46" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -1451,7 +1457,7 @@
         <v>61</v>
       </c>
       <c r="H47" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -1459,7 +1465,7 @@
         <v>62</v>
       </c>
       <c r="H48" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -1467,7 +1473,7 @@
         <v>63</v>
       </c>
       <c r="H49" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -1475,7 +1481,7 @@
         <v>64</v>
       </c>
       <c r="H50" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -1483,7 +1489,7 @@
         <v>65</v>
       </c>
       <c r="H51" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -1491,7 +1497,7 @@
         <v>66</v>
       </c>
       <c r="H52" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -1499,7 +1505,7 @@
         <v>67</v>
       </c>
       <c r="H53" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -1507,7 +1513,7 @@
         <v>68</v>
       </c>
       <c r="H54" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -1515,47 +1521,57 @@
         <v>69</v>
       </c>
       <c r="H55" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H56" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H57" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H58" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H59" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H60" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H61" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H62" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H63" t="s">
-        <v>100</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H64" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="65" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H65" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/Samples/Деревья.xlsx
+++ b/Samples/Деревья.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\Programming\PostgreSQL\Samples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DUB\Programming\PostgreSQL\Samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E49ECED9-B972-462E-82EC-46B83922473C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E041D6-8BD6-4197-9DFD-04E557EC7170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1725" yWindow="600" windowWidth="21690" windowHeight="18375" xr2:uid="{69D70B7A-34EB-47AC-A777-382FD57B056B}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="18720" windowHeight="12910" xr2:uid="{69D70B7A-34EB-47AC-A777-382FD57B056B}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -291,9 +291,6 @@
     <t xml:space="preserve">  WHERE  testtree_id = 22</t>
   </si>
   <si>
-    <t xml:space="preserve">           ON testtree.testtree_id = tree.master_id</t>
-  </si>
-  <si>
     <t>вверх все</t>
   </si>
   <si>
@@ -340,6 +337,9 @@
   </si>
   <si>
     <t>FROM   workgroup_tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           ON testtree.testtree_id = tree.master_id AND testtree.testtree_id != tree.testtree_id</t>
   </si>
 </sst>
 </file>
@@ -823,30 +823,30 @@
   <dimension ref="A2:R65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="O53" sqref="O53"/>
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="2"/>
-    <col min="4" max="4" width="9.140625" style="5"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="3"/>
-    <col min="8" max="8" width="14.5703125" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="2"/>
-    <col min="10" max="10" width="9.140625" style="1"/>
-    <col min="11" max="11" width="16.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="3"/>
+    <col min="1" max="1" width="9.1796875" style="4"/>
+    <col min="2" max="2" width="11.7265625" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" style="2"/>
+    <col min="4" max="4" width="9.1796875" style="5"/>
+    <col min="5" max="5" width="11.7265625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1796875" style="3"/>
+    <col min="8" max="8" width="14.54296875" customWidth="1"/>
+    <col min="9" max="9" width="9.1796875" style="2"/>
+    <col min="10" max="10" width="9.1796875" style="1"/>
+    <col min="11" max="11" width="16.1796875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.1796875" style="3"/>
     <col min="14" max="14" width="18" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="2"/>
-    <col min="16" max="16" width="9.140625" style="1"/>
-    <col min="17" max="17" width="18.140625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="9.140625" style="3"/>
+    <col min="15" max="15" width="9.1796875" style="2"/>
+    <col min="16" max="16" width="9.1796875" style="1"/>
+    <col min="17" max="17" width="18.1796875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -893,7 +893,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
       <c r="D3" s="8"/>
@@ -915,7 +915,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
       <c r="D4" s="8"/>
@@ -943,7 +943,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B5" s="6"/>
       <c r="C5" s="7"/>
       <c r="D5" s="8"/>
@@ -971,7 +971,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
       <c r="D6" s="8"/>
@@ -990,7 +990,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B7" s="6"/>
       <c r="C7" s="7"/>
       <c r="D7" s="8"/>
@@ -1024,7 +1024,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B8" s="6"/>
       <c r="C8" s="7"/>
       <c r="D8" s="8"/>
@@ -1043,7 +1043,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B9" s="6"/>
       <c r="C9" s="7"/>
       <c r="D9" s="8"/>
@@ -1068,7 +1068,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="J10" s="6">
         <v>20</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="M11" s="6">
         <v>22</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="D12" s="8">
         <v>3</v>
       </c>
@@ -1137,7 +1137,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="D13" s="8"/>
       <c r="E13" s="6"/>
       <c r="F13" s="7"/>
@@ -1151,7 +1151,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="D14" s="8">
         <v>4</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="G15" s="6">
         <v>28</v>
       </c>
@@ -1191,15 +1191,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="H17" t="s">
         <v>84</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>29</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>30</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>32</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>34</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>36</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>37</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>38</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>39</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>40</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>41</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>42</v>
       </c>
@@ -1329,7 +1329,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>43</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>44</v>
       </c>
@@ -1348,10 +1348,10 @@
         <v>81</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>45</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>46</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
         <v>47</v>
       </c>
@@ -1384,194 +1384,194 @@
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
         <v>60</v>
       </c>
       <c r="H46" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
         <v>61</v>
       </c>
       <c r="H47" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
         <v>62</v>
       </c>
       <c r="H48" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
         <v>63</v>
       </c>
       <c r="H49" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
         <v>64</v>
       </c>
       <c r="H50" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
         <v>65</v>
       </c>
       <c r="H51" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
         <v>66</v>
       </c>
       <c r="H52" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
         <v>67</v>
       </c>
       <c r="H53" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
         <v>68</v>
       </c>
       <c r="H54" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
         <v>69</v>
       </c>
       <c r="H55" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="H56" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="H57" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H58" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H59" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H58" t="s">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H60" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H59" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H60" t="s">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H61" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H61" t="s">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H62" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H62" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="H63" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="H64" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="65" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H65" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
